--- a/TestRunList.xlsx
+++ b/TestRunList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Gender</t>
   </si>
@@ -59,12 +59,6 @@
     <t>"TRUE"</t>
   </si>
   <si>
-    <t>"testfname"</t>
-  </si>
-  <si>
-    <t>"testlname"</t>
-  </si>
-  <si>
     <t>"male"</t>
   </si>
   <si>
@@ -104,15 +98,6 @@
     <t>FaxNumber</t>
   </si>
   <si>
-    <t>"Abir"</t>
-  </si>
-  <si>
-    <t>"Dey"</t>
-  </si>
-  <si>
-    <t>aa@aa.com</t>
-  </si>
-  <si>
     <t>"Bangladesh"</t>
   </si>
   <si>
@@ -150,6 +135,18 @@
   </si>
   <si>
     <t>"6250941006528599"</t>
+  </si>
+  <si>
+    <t>"Bishajit"</t>
+  </si>
+  <si>
+    <t>"Sarkar"</t>
+  </si>
+  <si>
+    <t>bishajit00@gmail.com</t>
+  </si>
+  <si>
+    <t>"Millennium Information Solution Ltd"</t>
   </si>
 </sst>
 </file>
@@ -490,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,31 +534,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,7 +580,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,69 +609,69 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,24 +703,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
